--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Dynamixel_MX64AT_Calibration.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/Dynamixel_MX64AT_Calibration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0678E743-7ED4-4BEA-B98D-C2315B5470B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F8F95-972A-48C2-808F-59859F502A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>From Data Sheet</t>
   </si>
@@ -53,15 +53,6 @@
     <t>cw</t>
   </si>
   <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Pulley Radius</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>Theoretical Torque</t>
   </si>
   <si>
@@ -81,6 +72,9 @@
   </si>
   <si>
     <t>CW</t>
+  </si>
+  <si>
+    <t>Arm</t>
   </si>
 </sst>
 </file>
@@ -88,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -121,10 +115,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,34 +399,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
-    <col min="15" max="17" width="26.85546875" customWidth="1"/>
+    <col min="14" max="15" width="22.42578125" customWidth="1"/>
+    <col min="16" max="18" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
         <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
       </c>
       <c r="O1" t="s">
         <v>12</v>
@@ -441,10 +435,13 @@
         <v>9</v>
       </c>
       <c r="Q1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -467,24 +464,21 @@
         <v>2047</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2" s="2">
-        <f>(N2/1000)*$A$9</f>
-        <v>2.0390000000000004E-3</v>
-      </c>
-      <c r="P2">
-        <v>1048</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>((P2-H2)/H2)*A2</f>
-        <v>0.14662756598240467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="O2">
+        <v>75</v>
+      </c>
+      <c r="P2" s="1">
+        <f>(N2/1000)*(O2/1000)</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G3">
         <v>0</v>
       </c>
@@ -498,13 +492,20 @@
         <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="O3">
+        <v>125</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P5" si="0">(N3/1000)*(O3/1000)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -518,55 +519,62 @@
         <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="O4">
+        <v>175</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Q4">
+        <v>1128</v>
+      </c>
+      <c r="R4">
+        <f>((Q4-$H$2)/$H$2)*$A$2</f>
+        <v>0.61583577712609971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N5">
-        <v>1000</v>
-      </c>
-      <c r="O5" s="2">
-        <f>(N5/1000)*$A$9</f>
-        <v>2.0390000000000002E-2</v>
-      </c>
-      <c r="P5">
-        <v>1048</v>
-      </c>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O7">
-        <f>5.5/A9/9.81</f>
-        <v>27.496439211122155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>20.39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>A8/1000</f>
-        <v>2.0390000000000002E-2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
+        <v>2000</v>
+      </c>
+      <c r="O5">
+        <v>175</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="Q5">
+        <v>1224</v>
+      </c>
+      <c r="R5">
+        <f>((Q5-$H$2)/$H$2)*$A$2</f>
+        <v>1.1788856304985336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <f>4096/6</f>
+        <v>682.66666666666663</v>
+      </c>
+      <c r="P13">
+        <f>2048-N13+N14</f>
+        <v>1621.3333333333335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <f>4096/16</f>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
